--- a/data/trans_dic/P79$impuestos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79$impuestos_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01374191700753338</v>
+        <v>0.01434505607357993</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01908421500444157</v>
+        <v>0.01855329370130368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01899031836427197</v>
+        <v>0.01936692485714027</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03744436186141058</v>
+        <v>0.03936320748554277</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03799666973691864</v>
+        <v>0.03714569006962589</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03396125102910458</v>
+        <v>0.03434514851357347</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00934750921962002</v>
+        <v>0.009580649273599515</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006334202133199015</v>
+        <v>0.006246594533880214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008953135741592832</v>
+        <v>0.008880061066789281</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02114771244956373</v>
+        <v>0.02167367706420023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01509063608594353</v>
+        <v>0.01531177961808692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01624523474829762</v>
+        <v>0.01623013327503837</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.00479005534530078</v>
+        <v>0.004790055345300779</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.00346646553121528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.004122634056854221</v>
+        <v>0.004122634056854222</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001564308463845276</v>
+        <v>0.001563349717628096</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0009778043040717787</v>
+        <v>0.0009617207403678518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001557830182036964</v>
+        <v>0.001570478684220645</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01437355397955505</v>
+        <v>0.01448632386951231</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01022965110146845</v>
+        <v>0.0093046758917575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008937463283423821</v>
+        <v>0.009132574865321472</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009975904454895991</v>
+        <v>0.01011371282247552</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009513633714556224</v>
+        <v>0.009704671833050722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01059716245375288</v>
+        <v>0.01043876029384996</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01827654988253627</v>
+        <v>0.01826597287426997</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01603273152664343</v>
+        <v>0.01597259570600087</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01587661655003163</v>
+        <v>0.01623665243883173</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7568</v>
+        <v>7900</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14888</v>
+        <v>14473</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25272</v>
+        <v>25774</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20621</v>
+        <v>21678</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29641</v>
+        <v>28977</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45196</v>
+        <v>45707</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>20163</v>
+        <v>20666</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13268</v>
+        <v>13085</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38066</v>
+        <v>37756</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>45616</v>
+        <v>46750</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31611</v>
+        <v>32074</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69070</v>
+        <v>69006</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1057,10 @@
         <v>1102</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2214</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10128</v>
+        <v>10208</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7332</v>
+        <v>6669</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12704</v>
+        <v>12981</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34041</v>
+        <v>34512</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>34169</v>
+        <v>34855</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74222</v>
+        <v>73112</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>62366</v>
+        <v>62330</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57582</v>
+        <v>57366</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>111198</v>
+        <v>113720</v>
       </c>
     </row>
     <row r="20">
